--- a/AUDITORIA.xlsx
+++ b/AUDITORIA.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D2FBFE-FF72-4CFA-B264-ED6CD99A492A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" updateLinks="always"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A2209-8701-4F13-A48B-8F28F9BEE8CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados ENEL" sheetId="1" r:id="rId1"/>
     <sheet name="Audit ENEL" sheetId="2" r:id="rId2"/>
     <sheet name="Dados Energisa" sheetId="3" r:id="rId3"/>
-    <sheet name="Audit Energisa" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
+    <sheet name="Audit Energisa" sheetId="4" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -198,6 +199,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -354,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -368,6 +372,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -388,55 +395,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>591290</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>181319</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E81236E-F72E-4B00-8C9C-C5FB83DD7BD8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9753600" y="0"/>
-          <a:ext cx="5306165" cy="2467319"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -445,6 +403,7 @@
       <sheetName val="concat"/>
       <sheetName val="ENEL"/>
       <sheetName val="Energisa"/>
+      <sheetName val="Sheet1"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -462,8 +421,8 @@
           <cell r="Z2" t="str">
             <v>Captura de dados</v>
           </cell>
-          <cell r="AA2" t="str">
-            <v>20:09:28</v>
+          <cell r="AA2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
@@ -1527,7 +1486,7 @@
       <sheetData sheetId="3">
         <row r="1">
           <cell r="AA1" t="str">
-            <v>Name</v>
+            <v>Nome</v>
           </cell>
           <cell r="AB1" t="str">
             <v>Dados tratados</v>
@@ -1537,69 +1496,69 @@
           <cell r="AA2" t="str">
             <v>Captura de dados</v>
           </cell>
-          <cell r="AB2" t="str">
-            <v>20:09:28</v>
+          <cell r="AB2">
+            <v>0</v>
           </cell>
         </row>
         <row r="3">
           <cell r="AA3" t="str">
             <v>Mes de Referencia</v>
           </cell>
-          <cell r="AB3" t="str">
-            <v>Setembro/2022</v>
+          <cell r="AB3" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="4">
           <cell r="AA4" t="str">
             <v>Vencimento</v>
           </cell>
-          <cell r="AB4" t="str">
-            <v>14/10/2022</v>
+          <cell r="AB4" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="5">
           <cell r="AA5" t="str">
             <v>Data de Emissao</v>
           </cell>
-          <cell r="AB5" t="str">
-            <v>03/10/2022</v>
+          <cell r="AB5" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="6">
           <cell r="AA6" t="str">
             <v>Total a pagar</v>
           </cell>
-          <cell r="AB6" t="str">
-            <v>16.925,11</v>
+          <cell r="AB6" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="7">
           <cell r="AA7" t="str">
             <v>Leitura Anterior</v>
           </cell>
-          <cell r="AB7" t="str">
-            <v>31/08/2022</v>
+          <cell r="AB7" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="8">
           <cell r="AA8" t="str">
             <v>Leitura Atual</v>
           </cell>
-          <cell r="AB8" t="str">
-            <v>30/09/2022</v>
+          <cell r="AB8" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="9">
           <cell r="AA9" t="str">
             <v>Proxima Leitura</v>
           </cell>
-          <cell r="AB9" t="str">
-            <v>31/10/2022</v>
+          <cell r="AB9" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="10">
           <cell r="AA10" t="str">
-            <v>CONSUMO MENSAL</v>
+            <v>CONSUMO MENSAL (grande consumidor)</v>
           </cell>
           <cell r="AB10" t="str">
             <v>///</v>
@@ -1610,7 +1569,7 @@
             <v>Consumo do Mês (P)</v>
           </cell>
           <cell r="AB11" t="str">
-            <v>181,65</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="12">
@@ -1618,7 +1577,7 @@
             <v>Energia Ativa Injetada (P)</v>
           </cell>
           <cell r="AB12" t="str">
-            <v>181,65</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="13">
@@ -1626,7 +1585,7 @@
             <v>Consumo do Mês (FP)</v>
           </cell>
           <cell r="AB13" t="str">
-            <v>1.159,20</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="14">
@@ -1634,7 +1593,7 @@
             <v>Energia Ativa Injetada (FP)</v>
           </cell>
           <cell r="AB14" t="str">
-            <v>1.159,20</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="15">
@@ -1642,7 +1601,7 @@
             <v>Energia Reativa Exced (P)</v>
           </cell>
           <cell r="AB15" t="str">
-            <v>23,10</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="16">
@@ -1650,7 +1609,7 @@
             <v>Energia Reativa Exced (FP)</v>
           </cell>
           <cell r="AB16" t="str">
-            <v>197,40</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="17">
@@ -1658,7 +1617,7 @@
             <v>Demanda de Potência Medida (FP)</v>
           </cell>
           <cell r="AB17" t="str">
-            <v>8,40</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="18">
@@ -1666,12 +1625,12 @@
             <v>Demanda Potência Não Consumida (FP)</v>
           </cell>
           <cell r="AB18" t="str">
-            <v>824,10</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="19">
           <cell r="AA19" t="str">
-            <v>TARIFA CONSUMO c/ TRIBUTOS</v>
+            <v>CONSUMO MENSAL (pequeno consumidor)</v>
           </cell>
           <cell r="AB19" t="str">
             <v>///</v>
@@ -1679,242 +1638,290 @@
         </row>
         <row r="20">
           <cell r="AA20" t="str">
-            <v>Tarifa Consumo do Mês (P)</v>
+            <v>Consumo em kWh</v>
           </cell>
           <cell r="AB20" t="str">
-            <v>1,616240</v>
+            <v>Grande consumidor ver acima /|\</v>
           </cell>
         </row>
         <row r="21">
           <cell r="AA21" t="str">
-            <v>Tarifa Energia Ativa Injetada (P)</v>
+            <v>Energia Atv Injetada</v>
           </cell>
           <cell r="AB21" t="str">
-            <v>1,616240</v>
+            <v>Grande consumidor ver acima /|\</v>
           </cell>
         </row>
         <row r="22">
           <cell r="AA22" t="str">
-            <v>Tarifa Consumo do Mês (FP)</v>
+            <v>Dif. Custo Disp. Res.</v>
           </cell>
           <cell r="AB22" t="str">
-            <v>0,449840</v>
+            <v>Grande consumidor ver acima /|\</v>
           </cell>
         </row>
         <row r="23">
           <cell r="AA23" t="str">
-            <v>Tarifa Energia Ativa Injetada (FP)</v>
+            <v>TARIFA CONSUMO c/ TRIBUTOS (grande consumidor)</v>
           </cell>
           <cell r="AB23" t="str">
-            <v>0,449840</v>
+            <v>///</v>
           </cell>
         </row>
         <row r="24">
           <cell r="AA24" t="str">
-            <v>Tarifa Energia Reativa Exced (P)</v>
+            <v>Tarifa Consumo do Mês (P)</v>
           </cell>
           <cell r="AB24" t="str">
-            <v>0,340220</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="25">
           <cell r="AA25" t="str">
-            <v>Tarifa Energia Reativa Exced (FP)</v>
+            <v>Tarifa Energia Ativa Injetada (P)</v>
           </cell>
           <cell r="AB25" t="str">
-            <v>0,340220</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="26">
           <cell r="AA26" t="str">
-            <v>Tarifa Demanda de Potência Medida (FP)</v>
+            <v>Tarifa Consumo do Mês (FP)</v>
           </cell>
           <cell r="AB26" t="str">
-            <v>20,184910</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="27">
           <cell r="AA27" t="str">
-            <v>Tarifa Demanda Potência Não Consumida (FP)</v>
+            <v>Tarifa Energia Ativa Injetada (FP)</v>
           </cell>
           <cell r="AB27" t="str">
-            <v>20,184910</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="28">
           <cell r="AA28" t="str">
-            <v>VALOR (Consumo x Tarifa)</v>
+            <v>Tarifa Energia Reativa Exced (P)</v>
           </cell>
           <cell r="AB28" t="str">
-            <v>///</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="29">
           <cell r="AA29" t="str">
-            <v>Valor Consumo do Mês (P)</v>
+            <v>Tarifa Energia Reativa Exced (FP)</v>
           </cell>
           <cell r="AB29" t="str">
-            <v>293,59</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="30">
           <cell r="AA30" t="str">
-            <v>Valor Energia Ativa Injetada (P)</v>
+            <v>Tarifa Demanda de Potência Medida (FP)</v>
           </cell>
           <cell r="AB30" t="str">
-            <v>-293,59</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="31">
           <cell r="AA31" t="str">
-            <v>Valor Consumo do Mês (FP)</v>
+            <v>Tarifa Demanda Potência Não Consumida (FP)</v>
           </cell>
           <cell r="AB31" t="str">
-            <v>521,47</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="32">
           <cell r="AA32" t="str">
-            <v>Valor Energia Ativa Injetada (FP)</v>
+            <v>Tarifa CONSUMO MENSAL c/ tributos (pequeno consumidor)</v>
           </cell>
           <cell r="AB32" t="str">
-            <v>-521,47</v>
+            <v>///</v>
           </cell>
         </row>
         <row r="33">
           <cell r="AA33" t="str">
-            <v>Valor Energia Reativa Exced (P)</v>
+            <v>Tarifa Consumo em kWh</v>
           </cell>
           <cell r="AB33" t="str">
-            <v>7,85</v>
+            <v>Grande consumidor ver acima /|\</v>
           </cell>
         </row>
         <row r="34">
           <cell r="AA34" t="str">
-            <v>Valor Energia Reativa Exced (FP)</v>
+            <v>Tarifa Energia Atv Injetada</v>
           </cell>
           <cell r="AB34" t="str">
-            <v>67,16</v>
+            <v>Grande consumidor ver acima /|\</v>
           </cell>
         </row>
         <row r="35">
           <cell r="AA35" t="str">
-            <v>Valor Demanda de Potência Medida (FP)</v>
+            <v>Tarifa Dif. Custo Disp. Res.</v>
           </cell>
           <cell r="AB35" t="str">
-            <v>169,55</v>
+            <v>Grande consumidor ver acima /|\</v>
           </cell>
         </row>
         <row r="36">
           <cell r="AA36" t="str">
-            <v>Valor Demanda Potência Não Consumida (FP)</v>
+            <v>VALOR (Consumo x Tarifa) (grande consumidor)</v>
           </cell>
           <cell r="AB36" t="str">
-            <v>16.634,38</v>
+            <v>///</v>
           </cell>
         </row>
         <row r="37">
           <cell r="AA37" t="str">
-            <v>CPF/CNPJ</v>
+            <v>Valor Consumo do Mês (P)</v>
           </cell>
           <cell r="AB37" t="str">
-            <v>41.628.717/0001-60</v>
+            <v>Pequeno consumidor ver abaixo  \|/</v>
           </cell>
         </row>
         <row r="38">
           <cell r="AA38" t="str">
+            <v>Valor Energia Ativa Injetada (P)</v>
+          </cell>
+          <cell r="AB38" t="str">
+            <v>Pequeno consumidor ver abaixo  \|/</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="AA39" t="str">
+            <v>Valor Consumo do Mês (FP)</v>
+          </cell>
+          <cell r="AB39" t="str">
+            <v>Pequeno consumidor ver abaixo  \|/</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="AA40" t="str">
+            <v>Valor Energia Ativa Injetada (FP)</v>
+          </cell>
+          <cell r="AB40" t="str">
+            <v>Pequeno consumidor ver abaixo  \|/</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="AA41" t="str">
+            <v>Valor Energia Reativa Exced (P)</v>
+          </cell>
+          <cell r="AB41" t="str">
+            <v>Pequeno consumidor ver abaixo  \|/</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="AA42" t="str">
+            <v>Valor Energia Reativa Exced (FP)</v>
+          </cell>
+          <cell r="AB42" t="str">
+            <v>Pequeno consumidor ver abaixo  \|/</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="AA43" t="str">
+            <v>Valor Demanda de Potência Medida (FP)</v>
+          </cell>
+          <cell r="AB43" t="str">
+            <v>Pequeno consumidor ver abaixo  \|/</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="AA44" t="str">
+            <v>Valor Demanda Potência Não Consumida (FP)</v>
+          </cell>
+          <cell r="AB44" t="str">
+            <v>Pequeno consumidor ver abaixo  \|/</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="AA45" t="str">
+            <v>VALOR (Consumo x Tarifa) (pequeno consumidor)</v>
+          </cell>
+          <cell r="AB45" t="str">
+            <v>///</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="AA46" t="str">
+            <v>Valor Consumo em kWh</v>
+          </cell>
+          <cell r="AB46" t="str">
+            <v>Grande consumidor ver acima /|\</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="AA47" t="str">
+            <v>Valor Energia Atv Injetada</v>
+          </cell>
+          <cell r="AB47" t="str">
+            <v>Grande consumidor ver acima /|\</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="AA48" t="str">
+            <v>Valor Dif. Custo Disp. Res.</v>
+          </cell>
+          <cell r="AB48" t="str">
+            <v>Grande consumidor ver acima /|\</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="AA49" t="str">
+            <v>Extras (grande consumidor)</v>
+          </cell>
+          <cell r="AB49" t="str">
+            <v>///</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="AA50" t="str">
+            <v>Contrib. Ilum. Publ.</v>
+          </cell>
+          <cell r="AB50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="AA51" t="str">
+            <v>JUROS MORA</v>
+          </cell>
+          <cell r="AB51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="AA52" t="str">
+            <v>MULTA</v>
+          </cell>
+          <cell r="AB52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="AA53" t="str">
+            <v>ATUALIZACAO MONETARIA</v>
+          </cell>
+          <cell r="AB53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="AA54" t="str">
+            <v>CPF/CNPJ</v>
+          </cell>
+          <cell r="AB54" t="e">
+            <v>#N/A</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="AA55" t="str">
             <v>UC/UG</v>
           </cell>
-          <cell r="AB38" t="str">
-            <v>9/2598964-1</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="AA39">
-            <v>0</v>
-          </cell>
-          <cell r="AB39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="AB40">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="AB41">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="AB42">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="AB43">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="AB44">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="AB45">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="AB46">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="AB47">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="AB48">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="AB49">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="AB50">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="AB51">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="AB52">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="AB53">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="AB54">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="AB55">
-            <v>0</v>
+          <cell r="AB55" t="e">
+            <v>#N/A</v>
           </cell>
         </row>
         <row r="56">
@@ -2022,6 +2029,11 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="77">
+          <cell r="AB77">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="78">
           <cell r="AB78">
             <v>0</v>
@@ -2537,6 +2549,51 @@
             <v>0</v>
           </cell>
         </row>
+        <row r="181">
+          <cell r="AB181">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="AB182">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="AB183">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="AB184">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="AB185">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="AB186">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="AB187">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="AB188">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="AB189">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="190">
           <cell r="AB190">
             <v>0</v>
@@ -2592,54 +2649,16 @@
             <v>0</v>
           </cell>
         </row>
-        <row r="201">
-          <cell r="AB201">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="AB202">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="AB203">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="AB204">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="AB205">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="AB206">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="AB207">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="AB208">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="AB209">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="AB210">
-            <v>0</v>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="13">
+          <cell r="I13">
+            <v>44880.944575000001</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="I14" t="str">
+            <v>g</v>
           </cell>
         </row>
       </sheetData>
@@ -2913,8 +2932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B200"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2938,9 +2957,9 @@
         <f>[1]ENEL!Z2</f>
         <v>Captura de dados</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="7">
         <f>[1]ENEL!AA2</f>
-        <v>20:09:28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4947,2012 +4966,2012 @@
   <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="str">
+      <c r="A1" s="15" t="str">
         <f>[1]Energisa!AA1</f>
-        <v>Name</v>
-      </c>
-      <c r="B1" s="5" t="str">
+        <v>Nome</v>
+      </c>
+      <c r="B1" s="15" t="str">
         <f>[1]Energisa!AB1</f>
         <v>Dados tratados</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="str">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="str">
         <f>[1]Energisa!AA2</f>
         <v>Captura de dados</v>
       </c>
-      <c r="B2" s="7" t="str">
+      <c r="B2" s="15">
         <f>[1]Energisa!AB2</f>
-        <v>20:09:28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="1" t="str">
         <f>[1]Energisa!AA3</f>
         <v>Mes de Referencia</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="1" t="e">
         <f>[1]Energisa!AB3</f>
-        <v>Setembro/2022</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="str">
+      <c r="A4" s="1" t="str">
         <f>[1]Energisa!AA4</f>
         <v>Vencimento</v>
       </c>
-      <c r="B4" s="3" t="str">
+      <c r="B4" s="1" t="e">
         <f>[1]Energisa!AB4</f>
-        <v>14/10/2022</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="str">
+      <c r="A5" s="1" t="str">
         <f>[1]Energisa!AA5</f>
         <v>Data de Emissao</v>
       </c>
-      <c r="B5" s="3" t="str">
+      <c r="B5" s="1" t="e">
         <f>[1]Energisa!AB5</f>
-        <v>03/10/2022</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="str">
+      <c r="A6" s="1" t="str">
         <f>[1]Energisa!AA6</f>
         <v>Total a pagar</v>
       </c>
-      <c r="B6" s="3" t="str">
+      <c r="B6" s="1" t="e">
         <f>[1]Energisa!AB6</f>
-        <v>16.925,11</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="str">
+      <c r="A7" s="1" t="str">
         <f>[1]Energisa!AA7</f>
         <v>Leitura Anterior</v>
       </c>
-      <c r="B7" s="3" t="str">
+      <c r="B7" s="1" t="e">
         <f>[1]Energisa!AB7</f>
-        <v>31/08/2022</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="str">
+      <c r="A8" s="1" t="str">
         <f>[1]Energisa!AA8</f>
         <v>Leitura Atual</v>
       </c>
-      <c r="B8" s="3" t="str">
+      <c r="B8" s="1" t="e">
         <f>[1]Energisa!AB8</f>
-        <v>30/09/2022</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="str">
+      <c r="A9" s="1" t="str">
         <f>[1]Energisa!AA9</f>
         <v>Proxima Leitura</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" s="1" t="e">
         <f>[1]Energisa!AB9</f>
-        <v>31/10/2022</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="str">
+      <c r="A10" s="1" t="str">
         <f>[1]Energisa!AA10</f>
-        <v>CONSUMO MENSAL</v>
-      </c>
-      <c r="B10" s="3" t="str">
+        <v>CONSUMO MENSAL (grande consumidor)</v>
+      </c>
+      <c r="B10" s="1" t="str">
         <f>[1]Energisa!AB10</f>
         <v>///</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="str">
+      <c r="A11" s="1" t="str">
         <f>[1]Energisa!AA11</f>
         <v>Consumo do Mês (P)</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="1" t="str">
         <f>[1]Energisa!AB11</f>
-        <v>181,65</v>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="str">
+      <c r="A12" s="1" t="str">
         <f>[1]Energisa!AA12</f>
         <v>Energia Ativa Injetada (P)</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="1" t="str">
         <f>[1]Energisa!AB12</f>
-        <v>181,65</v>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="str">
+      <c r="A13" s="1" t="str">
         <f>[1]Energisa!AA13</f>
         <v>Consumo do Mês (FP)</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="1" t="str">
         <f>[1]Energisa!AB13</f>
-        <v>1.159,20</v>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="str">
+      <c r="A14" s="1" t="str">
         <f>[1]Energisa!AA14</f>
         <v>Energia Ativa Injetada (FP)</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="1" t="str">
         <f>[1]Energisa!AB14</f>
-        <v>1.159,20</v>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="str">
+      <c r="A15" s="1" t="str">
         <f>[1]Energisa!AA15</f>
         <v>Energia Reativa Exced (P)</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="1" t="str">
         <f>[1]Energisa!AB15</f>
-        <v>23,10</v>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="str">
+      <c r="A16" s="1" t="str">
         <f>[1]Energisa!AA16</f>
         <v>Energia Reativa Exced (FP)</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="1" t="str">
         <f>[1]Energisa!AB16</f>
-        <v>197,40</v>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="str">
+      <c r="A17" s="1" t="str">
         <f>[1]Energisa!AA17</f>
         <v>Demanda de Potência Medida (FP)</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="1" t="str">
         <f>[1]Energisa!AB17</f>
-        <v>8,40</v>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="str">
+      <c r="A18" s="1" t="str">
         <f>[1]Energisa!AA18</f>
         <v>Demanda Potência Não Consumida (FP)</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="1" t="str">
         <f>[1]Energisa!AB18</f>
-        <v>824,10</v>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="str">
+      <c r="A19" s="1" t="str">
         <f>[1]Energisa!AA19</f>
-        <v>TARIFA CONSUMO c/ TRIBUTOS</v>
-      </c>
-      <c r="B19" s="3" t="str">
+        <v>CONSUMO MENSAL (pequeno consumidor)</v>
+      </c>
+      <c r="B19" s="1" t="str">
         <f>[1]Energisa!AB19</f>
         <v>///</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="str">
+      <c r="A20" s="1" t="str">
         <f>[1]Energisa!AA20</f>
+        <v>Consumo em kWh</v>
+      </c>
+      <c r="B20" s="1" t="str">
+        <f>[1]Energisa!AB20</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="str">
+        <f>[1]Energisa!AA21</f>
+        <v>Energia Atv Injetada</v>
+      </c>
+      <c r="B21" s="1" t="str">
+        <f>[1]Energisa!AB21</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="str">
+        <f>[1]Energisa!AA22</f>
+        <v>Dif. Custo Disp. Res.</v>
+      </c>
+      <c r="B22" s="1" t="str">
+        <f>[1]Energisa!AB22</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="str">
+        <f>[1]Energisa!AA23</f>
+        <v>TARIFA CONSUMO c/ TRIBUTOS (grande consumidor)</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>[1]Energisa!AB23</f>
+        <v>///</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="str">
+        <f>[1]Energisa!AA24</f>
         <v>Tarifa Consumo do Mês (P)</v>
       </c>
-      <c r="B20" s="3" t="str">
-        <f>[1]Energisa!AB20</f>
-        <v>1,616240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="str">
-        <f>[1]Energisa!AA21</f>
+      <c r="B24" s="1" t="str">
+        <f>[1]Energisa!AB24</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="str">
+        <f>[1]Energisa!AA25</f>
         <v>Tarifa Energia Ativa Injetada (P)</v>
       </c>
-      <c r="B21" s="3" t="str">
-        <f>[1]Energisa!AB21</f>
-        <v>1,616240</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="str">
-        <f>[1]Energisa!AA22</f>
+      <c r="B25" s="1" t="str">
+        <f>[1]Energisa!AB25</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="str">
+        <f>[1]Energisa!AA26</f>
         <v>Tarifa Consumo do Mês (FP)</v>
       </c>
-      <c r="B22" s="3" t="str">
-        <f>[1]Energisa!AB22</f>
-        <v>0,449840</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="str">
-        <f>[1]Energisa!AA23</f>
+      <c r="B26" s="1" t="str">
+        <f>[1]Energisa!AB26</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f>[1]Energisa!AA27</f>
         <v>Tarifa Energia Ativa Injetada (FP)</v>
       </c>
-      <c r="B23" s="3" t="str">
-        <f>[1]Energisa!AB23</f>
-        <v>0,449840</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="str">
-        <f>[1]Energisa!AA24</f>
+      <c r="B27" s="1" t="str">
+        <f>[1]Energisa!AB27</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="str">
+        <f>[1]Energisa!AA28</f>
         <v>Tarifa Energia Reativa Exced (P)</v>
       </c>
-      <c r="B24" s="3" t="str">
-        <f>[1]Energisa!AB24</f>
-        <v>0,340220</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="str">
-        <f>[1]Energisa!AA25</f>
+      <c r="B28" s="1" t="str">
+        <f>[1]Energisa!AB28</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="str">
+        <f>[1]Energisa!AA29</f>
         <v>Tarifa Energia Reativa Exced (FP)</v>
       </c>
-      <c r="B25" s="3" t="str">
-        <f>[1]Energisa!AB25</f>
-        <v>0,340220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="str">
-        <f>[1]Energisa!AA26</f>
+      <c r="B29" s="1" t="str">
+        <f>[1]Energisa!AB29</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="str">
+        <f>[1]Energisa!AA30</f>
         <v>Tarifa Demanda de Potência Medida (FP)</v>
       </c>
-      <c r="B26" s="3" t="str">
-        <f>[1]Energisa!AB26</f>
-        <v>20,184910</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="str">
-        <f>[1]Energisa!AA27</f>
+      <c r="B30" s="1" t="str">
+        <f>[1]Energisa!AB30</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="str">
+        <f>[1]Energisa!AA31</f>
         <v>Tarifa Demanda Potência Não Consumida (FP)</v>
       </c>
-      <c r="B27" s="3" t="str">
-        <f>[1]Energisa!AB27</f>
-        <v>20,184910</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="str">
-        <f>[1]Energisa!AA28</f>
-        <v>VALOR (Consumo x Tarifa)</v>
-      </c>
-      <c r="B28" s="3" t="str">
-        <f>[1]Energisa!AB28</f>
+      <c r="B31" s="1" t="str">
+        <f>[1]Energisa!AB31</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="str">
+        <f>[1]Energisa!AA32</f>
+        <v>Tarifa CONSUMO MENSAL c/ tributos (pequeno consumidor)</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>[1]Energisa!AB32</f>
         <v>///</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="str">
-        <f>[1]Energisa!AA29</f>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="str">
+        <f>[1]Energisa!AA33</f>
+        <v>Tarifa Consumo em kWh</v>
+      </c>
+      <c r="B33" s="1" t="str">
+        <f>[1]Energisa!AB33</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="str">
+        <f>[1]Energisa!AA34</f>
+        <v>Tarifa Energia Atv Injetada</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>[1]Energisa!AB34</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="str">
+        <f>[1]Energisa!AA35</f>
+        <v>Tarifa Dif. Custo Disp. Res.</v>
+      </c>
+      <c r="B35" s="1" t="str">
+        <f>[1]Energisa!AB35</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="str">
+        <f>[1]Energisa!AA36</f>
+        <v>VALOR (Consumo x Tarifa) (grande consumidor)</v>
+      </c>
+      <c r="B36" s="1" t="str">
+        <f>[1]Energisa!AB36</f>
+        <v>///</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="str">
+        <f>[1]Energisa!AA37</f>
         <v>Valor Consumo do Mês (P)</v>
       </c>
-      <c r="B29" s="3" t="str">
-        <f>[1]Energisa!AB29</f>
-        <v>293,59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="str">
-        <f>[1]Energisa!AA30</f>
+      <c r="B37" s="1" t="str">
+        <f>[1]Energisa!AB37</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="str">
+        <f>[1]Energisa!AA38</f>
         <v>Valor Energia Ativa Injetada (P)</v>
       </c>
-      <c r="B30" s="3" t="str">
-        <f>[1]Energisa!AB30</f>
-        <v>-293,59</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="str">
-        <f>[1]Energisa!AA31</f>
+      <c r="B38" s="1" t="str">
+        <f>[1]Energisa!AB38</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="str">
+        <f>[1]Energisa!AA39</f>
         <v>Valor Consumo do Mês (FP)</v>
       </c>
-      <c r="B31" s="3" t="str">
-        <f>[1]Energisa!AB31</f>
-        <v>521,47</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="str">
-        <f>[1]Energisa!AA32</f>
+      <c r="B39" s="1" t="str">
+        <f>[1]Energisa!AB39</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="str">
+        <f>[1]Energisa!AA40</f>
         <v>Valor Energia Ativa Injetada (FP)</v>
       </c>
-      <c r="B32" s="3" t="str">
-        <f>[1]Energisa!AB32</f>
-        <v>-521,47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="str">
-        <f>[1]Energisa!AA33</f>
+      <c r="B40" s="1" t="str">
+        <f>[1]Energisa!AB40</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="str">
+        <f>[1]Energisa!AA41</f>
         <v>Valor Energia Reativa Exced (P)</v>
       </c>
-      <c r="B33" s="3" t="str">
-        <f>[1]Energisa!AB33</f>
-        <v>7,85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3" t="str">
-        <f>[1]Energisa!AA34</f>
+      <c r="B41" s="1" t="str">
+        <f>[1]Energisa!AB41</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="str">
+        <f>[1]Energisa!AA42</f>
         <v>Valor Energia Reativa Exced (FP)</v>
       </c>
-      <c r="B34" s="3" t="str">
-        <f>[1]Energisa!AB34</f>
-        <v>67,16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3" t="str">
-        <f>[1]Energisa!AA35</f>
+      <c r="B42" s="1" t="str">
+        <f>[1]Energisa!AB42</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="str">
+        <f>[1]Energisa!AA43</f>
         <v>Valor Demanda de Potência Medida (FP)</v>
       </c>
-      <c r="B35" s="3" t="str">
-        <f>[1]Energisa!AB35</f>
-        <v>169,55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3" t="str">
-        <f>[1]Energisa!AA36</f>
+      <c r="B43" s="1" t="str">
+        <f>[1]Energisa!AB43</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="str">
+        <f>[1]Energisa!AA44</f>
         <v>Valor Demanda Potência Não Consumida (FP)</v>
       </c>
-      <c r="B36" s="3" t="str">
-        <f>[1]Energisa!AB36</f>
-        <v>16.634,38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="str">
-        <f>[1]Energisa!AA37</f>
+      <c r="B44" s="1" t="str">
+        <f>[1]Energisa!AB44</f>
+        <v>Pequeno consumidor ver abaixo  \|/</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="str">
+        <f>[1]Energisa!AA45</f>
+        <v>VALOR (Consumo x Tarifa) (pequeno consumidor)</v>
+      </c>
+      <c r="B45" s="1" t="str">
+        <f>[1]Energisa!AB45</f>
+        <v>///</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="str">
+        <f>[1]Energisa!AA46</f>
+        <v>Valor Consumo em kWh</v>
+      </c>
+      <c r="B46" s="1" t="str">
+        <f>[1]Energisa!AB46</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="str">
+        <f>[1]Energisa!AA47</f>
+        <v>Valor Energia Atv Injetada</v>
+      </c>
+      <c r="B47" s="1" t="str">
+        <f>[1]Energisa!AB47</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="str">
+        <f>[1]Energisa!AA48</f>
+        <v>Valor Dif. Custo Disp. Res.</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>[1]Energisa!AB48</f>
+        <v>Grande consumidor ver acima /|\</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="str">
+        <f>[1]Energisa!AA49</f>
+        <v>Extras (grande consumidor)</v>
+      </c>
+      <c r="B49" s="1" t="str">
+        <f>[1]Energisa!AB49</f>
+        <v>///</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="str">
+        <f>[1]Energisa!AA50</f>
+        <v>Contrib. Ilum. Publ.</v>
+      </c>
+      <c r="B50" s="1">
+        <f>[1]Energisa!AB50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="str">
+        <f>[1]Energisa!AA51</f>
+        <v>JUROS MORA</v>
+      </c>
+      <c r="B51" s="1">
+        <f>[1]Energisa!AB51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="str">
+        <f>[1]Energisa!AA52</f>
+        <v>MULTA</v>
+      </c>
+      <c r="B52" s="1">
+        <f>[1]Energisa!AB52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="str">
+        <f>[1]Energisa!AA53</f>
+        <v>ATUALIZACAO MONETARIA</v>
+      </c>
+      <c r="B53" s="1">
+        <f>[1]Energisa!AB53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="str">
+        <f>[1]Energisa!AA54</f>
         <v>CPF/CNPJ</v>
       </c>
-      <c r="B37" s="3" t="str">
-        <f>[1]Energisa!AB37</f>
-        <v>41.628.717/0001-60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="str">
-        <f>[1]Energisa!AA38</f>
+      <c r="B54" s="1" t="e">
+        <f>[1]Energisa!AB54</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="str">
+        <f>[1]Energisa!AA55</f>
         <v>UC/UG</v>
       </c>
-      <c r="B38" s="3" t="str">
-        <f>[1]Energisa!AB38</f>
-        <v>9/2598964-1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <f>[1]Energisa!AA39</f>
-        <v>0</v>
-      </c>
-      <c r="B39" s="3">
-        <f>[1]Energisa!AB39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <f>[1]Energisa!AA40</f>
-        <v>0</v>
-      </c>
-      <c r="B40" s="3">
-        <f>[1]Energisa!AB40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <f>[1]Energisa!AA41</f>
-        <v>0</v>
-      </c>
-      <c r="B41" s="3">
-        <f>[1]Energisa!AB41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <f>[1]Energisa!AA42</f>
-        <v>0</v>
-      </c>
-      <c r="B42" s="3">
-        <f>[1]Energisa!AB42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <f>[1]Energisa!AA43</f>
-        <v>0</v>
-      </c>
-      <c r="B43" s="3">
-        <f>[1]Energisa!AB43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <f>[1]Energisa!AA44</f>
-        <v>0</v>
-      </c>
-      <c r="B44" s="3">
-        <f>[1]Energisa!AB44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <f>[1]Energisa!AA45</f>
-        <v>0</v>
-      </c>
-      <c r="B45" s="3">
-        <f>[1]Energisa!AB45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <f>[1]Energisa!AA46</f>
-        <v>0</v>
-      </c>
-      <c r="B46" s="3">
-        <f>[1]Energisa!AB46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <f>[1]Energisa!AA47</f>
-        <v>0</v>
-      </c>
-      <c r="B47" s="3">
-        <f>[1]Energisa!AB47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <f>[1]Energisa!AA48</f>
-        <v>0</v>
-      </c>
-      <c r="B48" s="3">
-        <f>[1]Energisa!AB48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <f>[1]Energisa!AA49</f>
-        <v>0</v>
-      </c>
-      <c r="B49" s="3">
-        <f>[1]Energisa!AB49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <f>[1]Energisa!AA50</f>
-        <v>0</v>
-      </c>
-      <c r="B50" s="3">
-        <f>[1]Energisa!AB50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <f>[1]Energisa!AA51</f>
-        <v>0</v>
-      </c>
-      <c r="B51" s="3">
-        <f>[1]Energisa!AB51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
-        <f>[1]Energisa!AA52</f>
-        <v>0</v>
-      </c>
-      <c r="B52" s="3">
-        <f>[1]Energisa!AB52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <f>[1]Energisa!AA53</f>
-        <v>0</v>
-      </c>
-      <c r="B53" s="3">
-        <f>[1]Energisa!AB53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <f>[1]Energisa!AA54</f>
-        <v>0</v>
-      </c>
-      <c r="B54" s="3">
-        <f>[1]Energisa!AB54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <f>[1]Energisa!AA55</f>
-        <v>0</v>
-      </c>
-      <c r="B55" s="3">
+      <c r="B55" s="1" t="e">
         <f>[1]Energisa!AB55</f>
-        <v>0</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <f>[1]Energisa!AA56</f>
         <v>0</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="1">
         <f>[1]Energisa!AB56</f>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
+      <c r="A57" s="1">
         <f>[1]Energisa!AA57</f>
         <v>0</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="1">
         <f>[1]Energisa!AB57</f>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <f>[1]Energisa!AA58</f>
         <v>0</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="1">
         <f>[1]Energisa!AB58</f>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <f>[1]Energisa!AA59</f>
         <v>0</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="1">
         <f>[1]Energisa!AB59</f>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="3">
+      <c r="A60" s="1">
         <f>[1]Energisa!AA60</f>
         <v>0</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="1">
         <f>[1]Energisa!AB60</f>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="1">
         <f>[1]Energisa!AA61</f>
         <v>0</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="1">
         <f>[1]Energisa!AB61</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <f>[1]Energisa!AA62</f>
         <v>0</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="1">
         <f>[1]Energisa!AB62</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
+      <c r="A63" s="1">
         <f>[1]Energisa!AA63</f>
         <v>0</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="1">
         <f>[1]Energisa!AB63</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="3">
+      <c r="A64" s="1">
         <f>[1]Energisa!AA64</f>
         <v>0</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="1">
         <f>[1]Energisa!AB64</f>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+      <c r="A65" s="1">
         <f>[1]Energisa!AA65</f>
         <v>0</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="1">
         <f>[1]Energisa!AB65</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
+      <c r="A66" s="1">
         <f>[1]Energisa!AA66</f>
         <v>0</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="1">
         <f>[1]Energisa!AB66</f>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="3">
+      <c r="A67" s="1">
         <f>[1]Energisa!AA67</f>
         <v>0</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="1">
         <f>[1]Energisa!AB67</f>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
+      <c r="A68" s="1">
         <f>[1]Energisa!AA68</f>
         <v>0</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="1">
         <f>[1]Energisa!AB68</f>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
+      <c r="A69" s="1">
         <f>[1]Energisa!AA69</f>
         <v>0</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="1">
         <f>[1]Energisa!AB69</f>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
+      <c r="A70" s="1">
         <f>[1]Energisa!AA70</f>
         <v>0</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="1">
         <f>[1]Energisa!AB70</f>
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
+      <c r="A71" s="1">
         <f>[1]Energisa!AA71</f>
         <v>0</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="1">
         <f>[1]Energisa!AB71</f>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
+      <c r="A72" s="1">
         <f>[1]Energisa!AA72</f>
         <v>0</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="1">
         <f>[1]Energisa!AB72</f>
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
+      <c r="A73" s="1">
         <f>[1]Energisa!AA73</f>
         <v>0</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="1">
         <f>[1]Energisa!AB73</f>
         <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
+      <c r="A74" s="1">
         <f>[1]Energisa!AA74</f>
         <v>0</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="1">
         <f>[1]Energisa!AB74</f>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
+      <c r="A75" s="1">
         <f>[1]Energisa!AA75</f>
         <v>0</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="1">
         <f>[1]Energisa!AB75</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
+      <c r="A76" s="1">
         <f>[1]Energisa!AA76</f>
         <v>0</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="1">
         <f>[1]Energisa!AB76</f>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <f>[1]Energisa!AA78</f>
+        <f>[1]Energisa!AA77</f>
         <v>0</v>
       </c>
       <c r="B77" s="1">
-        <f>[1]Energisa!AB78</f>
+        <f>[1]Energisa!AB77</f>
         <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <f>[1]Energisa!AA79</f>
+        <f>[1]Energisa!AA78</f>
         <v>0</v>
       </c>
       <c r="B78" s="1">
-        <f>[1]Energisa!AB79</f>
+        <f>[1]Energisa!AB78</f>
         <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <f>[1]Energisa!AA80</f>
+        <f>[1]Energisa!AA79</f>
         <v>0</v>
       </c>
       <c r="B79" s="1">
-        <f>[1]Energisa!AB80</f>
+        <f>[1]Energisa!AB79</f>
         <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <f>[1]Energisa!AA81</f>
+        <f>[1]Energisa!AA80</f>
         <v>0</v>
       </c>
       <c r="B80" s="1">
-        <f>[1]Energisa!AB81</f>
+        <f>[1]Energisa!AB80</f>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <f>[1]Energisa!AA82</f>
+        <f>[1]Energisa!AA81</f>
         <v>0</v>
       </c>
       <c r="B81" s="1">
-        <f>[1]Energisa!AB82</f>
+        <f>[1]Energisa!AB81</f>
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <f>[1]Energisa!AA83</f>
+        <f>[1]Energisa!AA82</f>
         <v>0</v>
       </c>
       <c r="B82" s="1">
-        <f>[1]Energisa!AB83</f>
+        <f>[1]Energisa!AB82</f>
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <f>[1]Energisa!AA84</f>
+        <f>[1]Energisa!AA83</f>
         <v>0</v>
       </c>
       <c r="B83" s="1">
-        <f>[1]Energisa!AB84</f>
+        <f>[1]Energisa!AB83</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <f>[1]Energisa!AA85</f>
+        <f>[1]Energisa!AA84</f>
         <v>0</v>
       </c>
       <c r="B84" s="1">
-        <f>[1]Energisa!AB85</f>
+        <f>[1]Energisa!AB84</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <f>[1]Energisa!AA86</f>
+        <f>[1]Energisa!AA85</f>
         <v>0</v>
       </c>
       <c r="B85" s="1">
-        <f>[1]Energisa!AB86</f>
+        <f>[1]Energisa!AB85</f>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <f>[1]Energisa!AA87</f>
+        <f>[1]Energisa!AA86</f>
         <v>0</v>
       </c>
       <c r="B86" s="1">
-        <f>[1]Energisa!AB87</f>
+        <f>[1]Energisa!AB86</f>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <f>[1]Energisa!AA88</f>
+        <f>[1]Energisa!AA87</f>
         <v>0</v>
       </c>
       <c r="B87" s="1">
-        <f>[1]Energisa!AB88</f>
+        <f>[1]Energisa!AB87</f>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <f>[1]Energisa!AA89</f>
+        <f>[1]Energisa!AA88</f>
         <v>0</v>
       </c>
       <c r="B88" s="1">
-        <f>[1]Energisa!AB89</f>
+        <f>[1]Energisa!AB88</f>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <f>[1]Energisa!AA90</f>
+        <f>[1]Energisa!AA89</f>
         <v>0</v>
       </c>
       <c r="B89" s="1">
-        <f>[1]Energisa!AB90</f>
+        <f>[1]Energisa!AB89</f>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <f>[1]Energisa!AA91</f>
+        <f>[1]Energisa!AA90</f>
         <v>0</v>
       </c>
       <c r="B90" s="1">
-        <f>[1]Energisa!AB91</f>
+        <f>[1]Energisa!AB90</f>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <f>[1]Energisa!AA92</f>
+        <f>[1]Energisa!AA91</f>
         <v>0</v>
       </c>
       <c r="B91" s="1">
-        <f>[1]Energisa!AB92</f>
+        <f>[1]Energisa!AB91</f>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <f>[1]Energisa!AA93</f>
+        <f>[1]Energisa!AA92</f>
         <v>0</v>
       </c>
       <c r="B92" s="1">
-        <f>[1]Energisa!AB93</f>
+        <f>[1]Energisa!AB92</f>
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <f>[1]Energisa!AA94</f>
+        <f>[1]Energisa!AA93</f>
         <v>0</v>
       </c>
       <c r="B93" s="1">
-        <f>[1]Energisa!AB94</f>
+        <f>[1]Energisa!AB93</f>
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <f>[1]Energisa!AA95</f>
+        <f>[1]Energisa!AA94</f>
         <v>0</v>
       </c>
       <c r="B94" s="1">
-        <f>[1]Energisa!AB95</f>
+        <f>[1]Energisa!AB94</f>
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <f>[1]Energisa!AA96</f>
+        <f>[1]Energisa!AA95</f>
         <v>0</v>
       </c>
       <c r="B95" s="1">
-        <f>[1]Energisa!AB96</f>
+        <f>[1]Energisa!AB95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <f>[1]Energisa!AA97</f>
+        <f>[1]Energisa!AA96</f>
         <v>0</v>
       </c>
       <c r="B96" s="1">
-        <f>[1]Energisa!AB97</f>
+        <f>[1]Energisa!AB96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <f>[1]Energisa!AA98</f>
+        <f>[1]Energisa!AA97</f>
         <v>0</v>
       </c>
       <c r="B97" s="1">
-        <f>[1]Energisa!AB98</f>
+        <f>[1]Energisa!AB97</f>
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <f>[1]Energisa!AA99</f>
+        <f>[1]Energisa!AA98</f>
         <v>0</v>
       </c>
       <c r="B98" s="1">
-        <f>[1]Energisa!AB99</f>
+        <f>[1]Energisa!AB98</f>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <f>[1]Energisa!AA100</f>
+        <f>[1]Energisa!AA99</f>
         <v>0</v>
       </c>
       <c r="B99" s="1">
-        <f>[1]Energisa!AB100</f>
+        <f>[1]Energisa!AB99</f>
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <f>[1]Energisa!AA101</f>
+        <f>[1]Energisa!AA100</f>
         <v>0</v>
       </c>
       <c r="B100" s="1">
-        <f>[1]Energisa!AB101</f>
+        <f>[1]Energisa!AB100</f>
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <f>[1]Energisa!AA102</f>
+        <f>[1]Energisa!AA101</f>
         <v>0</v>
       </c>
       <c r="B101" s="1">
-        <f>[1]Energisa!AB102</f>
+        <f>[1]Energisa!AB101</f>
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <f>[1]Energisa!AA103</f>
+        <f>[1]Energisa!AA102</f>
         <v>0</v>
       </c>
       <c r="B102" s="1">
-        <f>[1]Energisa!AB103</f>
+        <f>[1]Energisa!AB102</f>
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <f>[1]Energisa!AA104</f>
+        <f>[1]Energisa!AA103</f>
         <v>0</v>
       </c>
       <c r="B103" s="1">
-        <f>[1]Energisa!AB104</f>
+        <f>[1]Energisa!AB103</f>
         <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <f>[1]Energisa!AA105</f>
+        <f>[1]Energisa!AA104</f>
         <v>0</v>
       </c>
       <c r="B104" s="1">
-        <f>[1]Energisa!AB105</f>
+        <f>[1]Energisa!AB104</f>
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <f>[1]Energisa!AA106</f>
+        <f>[1]Energisa!AA105</f>
         <v>0</v>
       </c>
       <c r="B105" s="1">
-        <f>[1]Energisa!AB106</f>
+        <f>[1]Energisa!AB105</f>
         <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <f>[1]Energisa!AA107</f>
+        <f>[1]Energisa!AA106</f>
         <v>0</v>
       </c>
       <c r="B106" s="1">
-        <f>[1]Energisa!AB107</f>
+        <f>[1]Energisa!AB106</f>
         <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <f>[1]Energisa!AA108</f>
+        <f>[1]Energisa!AA107</f>
         <v>0</v>
       </c>
       <c r="B107" s="1">
-        <f>[1]Energisa!AB108</f>
+        <f>[1]Energisa!AB107</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <f>[1]Energisa!AA109</f>
+        <f>[1]Energisa!AA108</f>
         <v>0</v>
       </c>
       <c r="B108" s="1">
-        <f>[1]Energisa!AB109</f>
+        <f>[1]Energisa!AB108</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <f>[1]Energisa!AA110</f>
+        <f>[1]Energisa!AA109</f>
         <v>0</v>
       </c>
       <c r="B109" s="1">
-        <f>[1]Energisa!AB110</f>
+        <f>[1]Energisa!AB109</f>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <f>[1]Energisa!AA111</f>
+        <f>[1]Energisa!AA110</f>
         <v>0</v>
       </c>
       <c r="B110" s="1">
-        <f>[1]Energisa!AB111</f>
+        <f>[1]Energisa!AB110</f>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <f>[1]Energisa!AA112</f>
+        <f>[1]Energisa!AA111</f>
         <v>0</v>
       </c>
       <c r="B111" s="1">
-        <f>[1]Energisa!AB112</f>
+        <f>[1]Energisa!AB111</f>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <f>[1]Energisa!AA113</f>
+        <f>[1]Energisa!AA112</f>
         <v>0</v>
       </c>
       <c r="B112" s="1">
-        <f>[1]Energisa!AB113</f>
+        <f>[1]Energisa!AB112</f>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <f>[1]Energisa!AA114</f>
+        <f>[1]Energisa!AA113</f>
         <v>0</v>
       </c>
       <c r="B113" s="1">
-        <f>[1]Energisa!AB114</f>
+        <f>[1]Energisa!AB113</f>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <f>[1]Energisa!AA115</f>
+        <f>[1]Energisa!AA114</f>
         <v>0</v>
       </c>
       <c r="B114" s="1">
-        <f>[1]Energisa!AB115</f>
+        <f>[1]Energisa!AB114</f>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <f>[1]Energisa!AA116</f>
+        <f>[1]Energisa!AA115</f>
         <v>0</v>
       </c>
       <c r="B115" s="1">
-        <f>[1]Energisa!AB116</f>
+        <f>[1]Energisa!AB115</f>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <f>[1]Energisa!AA117</f>
+        <f>[1]Energisa!AA116</f>
         <v>0</v>
       </c>
       <c r="B116" s="1">
-        <f>[1]Energisa!AB117</f>
+        <f>[1]Energisa!AB116</f>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <f>[1]Energisa!AA118</f>
+        <f>[1]Energisa!AA117</f>
         <v>0</v>
       </c>
       <c r="B117" s="1">
-        <f>[1]Energisa!AB118</f>
+        <f>[1]Energisa!AB117</f>
         <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <f>[1]Energisa!AA119</f>
+        <f>[1]Energisa!AA118</f>
         <v>0</v>
       </c>
       <c r="B118" s="1">
-        <f>[1]Energisa!AB119</f>
+        <f>[1]Energisa!AB118</f>
         <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <f>[1]Energisa!AA120</f>
+        <f>[1]Energisa!AA119</f>
         <v>0</v>
       </c>
       <c r="B119" s="1">
-        <f>[1]Energisa!AB120</f>
+        <f>[1]Energisa!AB119</f>
         <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <f>[1]Energisa!AA121</f>
+        <f>[1]Energisa!AA120</f>
         <v>0</v>
       </c>
       <c r="B120" s="1">
-        <f>[1]Energisa!AB121</f>
+        <f>[1]Energisa!AB120</f>
         <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <f>[1]Energisa!AA122</f>
+        <f>[1]Energisa!AA121</f>
         <v>0</v>
       </c>
       <c r="B121" s="1">
-        <f>[1]Energisa!AB122</f>
+        <f>[1]Energisa!AB121</f>
         <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <f>[1]Energisa!AA123</f>
+        <f>[1]Energisa!AA122</f>
         <v>0</v>
       </c>
       <c r="B122" s="1">
-        <f>[1]Energisa!AB123</f>
+        <f>[1]Energisa!AB122</f>
         <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <f>[1]Energisa!AA124</f>
+        <f>[1]Energisa!AA123</f>
         <v>0</v>
       </c>
       <c r="B123" s="1">
-        <f>[1]Energisa!AB124</f>
+        <f>[1]Energisa!AB123</f>
         <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
-        <f>[1]Energisa!AA125</f>
+        <f>[1]Energisa!AA124</f>
         <v>0</v>
       </c>
       <c r="B124" s="1">
-        <f>[1]Energisa!AB125</f>
+        <f>[1]Energisa!AB124</f>
         <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
-        <f>[1]Energisa!AA126</f>
+        <f>[1]Energisa!AA125</f>
         <v>0</v>
       </c>
       <c r="B125" s="1">
-        <f>[1]Energisa!AB126</f>
+        <f>[1]Energisa!AB125</f>
         <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
-        <f>[1]Energisa!AA127</f>
+        <f>[1]Energisa!AA126</f>
         <v>0</v>
       </c>
       <c r="B126" s="1">
-        <f>[1]Energisa!AB127</f>
+        <f>[1]Energisa!AB126</f>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
-        <f>[1]Energisa!AA128</f>
+        <f>[1]Energisa!AA127</f>
         <v>0</v>
       </c>
       <c r="B127" s="1">
-        <f>[1]Energisa!AB128</f>
+        <f>[1]Energisa!AB127</f>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
-        <f>[1]Energisa!AA129</f>
+        <f>[1]Energisa!AA128</f>
         <v>0</v>
       </c>
       <c r="B128" s="1">
-        <f>[1]Energisa!AB129</f>
+        <f>[1]Energisa!AB128</f>
         <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
-        <f>[1]Energisa!AA130</f>
+        <f>[1]Energisa!AA129</f>
         <v>0</v>
       </c>
       <c r="B129" s="1">
-        <f>[1]Energisa!AB130</f>
+        <f>[1]Energisa!AB129</f>
         <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
-        <f>[1]Energisa!AA131</f>
+        <f>[1]Energisa!AA130</f>
         <v>0</v>
       </c>
       <c r="B130" s="1">
-        <f>[1]Energisa!AB131</f>
+        <f>[1]Energisa!AB130</f>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
-        <f>[1]Energisa!AA132</f>
+        <f>[1]Energisa!AA131</f>
         <v>0</v>
       </c>
       <c r="B131" s="1">
-        <f>[1]Energisa!AB132</f>
+        <f>[1]Energisa!AB131</f>
         <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
-        <f>[1]Energisa!AA133</f>
+        <f>[1]Energisa!AA132</f>
         <v>0</v>
       </c>
       <c r="B132" s="1">
-        <f>[1]Energisa!AB133</f>
+        <f>[1]Energisa!AB132</f>
         <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
-        <f>[1]Energisa!AA134</f>
+        <f>[1]Energisa!AA133</f>
         <v>0</v>
       </c>
       <c r="B133" s="1">
-        <f>[1]Energisa!AB134</f>
+        <f>[1]Energisa!AB133</f>
         <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
-        <f>[1]Energisa!AA135</f>
+        <f>[1]Energisa!AA134</f>
         <v>0</v>
       </c>
       <c r="B134" s="1">
-        <f>[1]Energisa!AB135</f>
+        <f>[1]Energisa!AB134</f>
         <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
-        <f>[1]Energisa!AA136</f>
+        <f>[1]Energisa!AA135</f>
         <v>0</v>
       </c>
       <c r="B135" s="1">
-        <f>[1]Energisa!AB136</f>
+        <f>[1]Energisa!AB135</f>
         <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
-        <f>[1]Energisa!AA137</f>
+        <f>[1]Energisa!AA136</f>
         <v>0</v>
       </c>
       <c r="B136" s="1">
-        <f>[1]Energisa!AB137</f>
+        <f>[1]Energisa!AB136</f>
         <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
-        <f>[1]Energisa!AA138</f>
+        <f>[1]Energisa!AA137</f>
         <v>0</v>
       </c>
       <c r="B137" s="1">
-        <f>[1]Energisa!AB138</f>
+        <f>[1]Energisa!AB137</f>
         <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
-        <f>[1]Energisa!AA139</f>
+        <f>[1]Energisa!AA138</f>
         <v>0</v>
       </c>
       <c r="B138" s="1">
-        <f>[1]Energisa!AB139</f>
+        <f>[1]Energisa!AB138</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
-        <f>[1]Energisa!AA140</f>
+        <f>[1]Energisa!AA139</f>
         <v>0</v>
       </c>
       <c r="B139" s="1">
-        <f>[1]Energisa!AB140</f>
+        <f>[1]Energisa!AB139</f>
         <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
-        <f>[1]Energisa!AA141</f>
+        <f>[1]Energisa!AA140</f>
         <v>0</v>
       </c>
       <c r="B140" s="1">
-        <f>[1]Energisa!AB141</f>
+        <f>[1]Energisa!AB140</f>
         <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
-        <f>[1]Energisa!AA142</f>
+        <f>[1]Energisa!AA141</f>
         <v>0</v>
       </c>
       <c r="B141" s="1">
-        <f>[1]Energisa!AB142</f>
+        <f>[1]Energisa!AB141</f>
         <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
-        <f>[1]Energisa!AA143</f>
+        <f>[1]Energisa!AA142</f>
         <v>0</v>
       </c>
       <c r="B142" s="1">
-        <f>[1]Energisa!AB143</f>
+        <f>[1]Energisa!AB142</f>
         <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
-        <f>[1]Energisa!AA144</f>
+        <f>[1]Energisa!AA143</f>
         <v>0</v>
       </c>
       <c r="B143" s="1">
-        <f>[1]Energisa!AB144</f>
+        <f>[1]Energisa!AB143</f>
         <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
-        <f>[1]Energisa!AA145</f>
+        <f>[1]Energisa!AA144</f>
         <v>0</v>
       </c>
       <c r="B144" s="1">
-        <f>[1]Energisa!AB145</f>
+        <f>[1]Energisa!AB144</f>
         <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
-        <f>[1]Energisa!AA146</f>
+        <f>[1]Energisa!AA145</f>
         <v>0</v>
       </c>
       <c r="B145" s="1">
-        <f>[1]Energisa!AB146</f>
+        <f>[1]Energisa!AB145</f>
         <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
-        <f>[1]Energisa!AA147</f>
+        <f>[1]Energisa!AA146</f>
         <v>0</v>
       </c>
       <c r="B146" s="1">
-        <f>[1]Energisa!AB147</f>
+        <f>[1]Energisa!AB146</f>
         <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
-        <f>[1]Energisa!AA148</f>
+        <f>[1]Energisa!AA147</f>
         <v>0</v>
       </c>
       <c r="B147" s="1">
-        <f>[1]Energisa!AB148</f>
+        <f>[1]Energisa!AB147</f>
         <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
-        <f>[1]Energisa!AA149</f>
+        <f>[1]Energisa!AA148</f>
         <v>0</v>
       </c>
       <c r="B148" s="1">
-        <f>[1]Energisa!AB149</f>
+        <f>[1]Energisa!AB148</f>
         <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
-        <f>[1]Energisa!AA150</f>
+        <f>[1]Energisa!AA149</f>
         <v>0</v>
       </c>
       <c r="B149" s="1">
-        <f>[1]Energisa!AB150</f>
+        <f>[1]Energisa!AB149</f>
         <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
-        <f>[1]Energisa!AA151</f>
+        <f>[1]Energisa!AA150</f>
         <v>0</v>
       </c>
       <c r="B150" s="1">
-        <f>[1]Energisa!AB151</f>
+        <f>[1]Energisa!AB150</f>
         <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
-        <f>[1]Energisa!AA152</f>
+        <f>[1]Energisa!AA151</f>
         <v>0</v>
       </c>
       <c r="B151" s="1">
-        <f>[1]Energisa!AB152</f>
+        <f>[1]Energisa!AB151</f>
         <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
-        <f>[1]Energisa!AA153</f>
+        <f>[1]Energisa!AA152</f>
         <v>0</v>
       </c>
       <c r="B152" s="1">
-        <f>[1]Energisa!AB153</f>
+        <f>[1]Energisa!AB152</f>
         <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
-        <f>[1]Energisa!AA154</f>
+        <f>[1]Energisa!AA153</f>
         <v>0</v>
       </c>
       <c r="B153" s="1">
-        <f>[1]Energisa!AB154</f>
+        <f>[1]Energisa!AB153</f>
         <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
-        <f>[1]Energisa!AA155</f>
+        <f>[1]Energisa!AA154</f>
         <v>0</v>
       </c>
       <c r="B154" s="1">
-        <f>[1]Energisa!AB155</f>
+        <f>[1]Energisa!AB154</f>
         <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
-        <f>[1]Energisa!AA156</f>
+        <f>[1]Energisa!AA155</f>
         <v>0</v>
       </c>
       <c r="B155" s="1">
-        <f>[1]Energisa!AB156</f>
+        <f>[1]Energisa!AB155</f>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
-        <f>[1]Energisa!AA157</f>
+        <f>[1]Energisa!AA156</f>
         <v>0</v>
       </c>
       <c r="B156" s="1">
-        <f>[1]Energisa!AB157</f>
+        <f>[1]Energisa!AB156</f>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
-        <f>[1]Energisa!AA158</f>
+        <f>[1]Energisa!AA157</f>
         <v>0</v>
       </c>
       <c r="B157" s="1">
-        <f>[1]Energisa!AB158</f>
+        <f>[1]Energisa!AB157</f>
         <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
-        <f>[1]Energisa!AA159</f>
+        <f>[1]Energisa!AA158</f>
         <v>0</v>
       </c>
       <c r="B158" s="1">
-        <f>[1]Energisa!AB159</f>
+        <f>[1]Energisa!AB158</f>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
-        <f>[1]Energisa!AA160</f>
+        <f>[1]Energisa!AA159</f>
         <v>0</v>
       </c>
       <c r="B159" s="1">
-        <f>[1]Energisa!AB160</f>
+        <f>[1]Energisa!AB159</f>
         <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
-        <f>[1]Energisa!AA161</f>
+        <f>[1]Energisa!AA160</f>
         <v>0</v>
       </c>
       <c r="B160" s="1">
-        <f>[1]Energisa!AB161</f>
+        <f>[1]Energisa!AB160</f>
         <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
-        <f>[1]Energisa!AA162</f>
+        <f>[1]Energisa!AA161</f>
         <v>0</v>
       </c>
       <c r="B161" s="1">
-        <f>[1]Energisa!AB162</f>
+        <f>[1]Energisa!AB161</f>
         <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
-        <f>[1]Energisa!AA163</f>
+        <f>[1]Energisa!AA162</f>
         <v>0</v>
       </c>
       <c r="B162" s="1">
-        <f>[1]Energisa!AB163</f>
+        <f>[1]Energisa!AB162</f>
         <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
-        <f>[1]Energisa!AA164</f>
+        <f>[1]Energisa!AA163</f>
         <v>0</v>
       </c>
       <c r="B163" s="1">
-        <f>[1]Energisa!AB164</f>
+        <f>[1]Energisa!AB163</f>
         <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
-        <f>[1]Energisa!AA165</f>
+        <f>[1]Energisa!AA164</f>
         <v>0</v>
       </c>
       <c r="B164" s="1">
-        <f>[1]Energisa!AB165</f>
+        <f>[1]Energisa!AB164</f>
         <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
-        <f>[1]Energisa!AA166</f>
+        <f>[1]Energisa!AA165</f>
         <v>0</v>
       </c>
       <c r="B165" s="1">
-        <f>[1]Energisa!AB166</f>
+        <f>[1]Energisa!AB165</f>
         <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
-        <f>[1]Energisa!AA167</f>
+        <f>[1]Energisa!AA166</f>
         <v>0</v>
       </c>
       <c r="B166" s="1">
-        <f>[1]Energisa!AB167</f>
+        <f>[1]Energisa!AB166</f>
         <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
-        <f>[1]Energisa!AA168</f>
+        <f>[1]Energisa!AA167</f>
         <v>0</v>
       </c>
       <c r="B167" s="1">
-        <f>[1]Energisa!AB168</f>
+        <f>[1]Energisa!AB167</f>
         <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
-        <f>[1]Energisa!AA169</f>
+        <f>[1]Energisa!AA168</f>
         <v>0</v>
       </c>
       <c r="B168" s="1">
-        <f>[1]Energisa!AB169</f>
+        <f>[1]Energisa!AB168</f>
         <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
-        <f>[1]Energisa!AA170</f>
+        <f>[1]Energisa!AA169</f>
         <v>0</v>
       </c>
       <c r="B169" s="1">
-        <f>[1]Energisa!AB170</f>
+        <f>[1]Energisa!AB169</f>
         <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
-        <f>[1]Energisa!AA171</f>
+        <f>[1]Energisa!AA170</f>
         <v>0</v>
       </c>
       <c r="B170" s="1">
-        <f>[1]Energisa!AB171</f>
+        <f>[1]Energisa!AB170</f>
         <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
-        <f>[1]Energisa!AA172</f>
+        <f>[1]Energisa!AA171</f>
         <v>0</v>
       </c>
       <c r="B171" s="1">
-        <f>[1]Energisa!AB172</f>
+        <f>[1]Energisa!AB171</f>
         <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
-        <f>[1]Energisa!AA173</f>
+        <f>[1]Energisa!AA172</f>
         <v>0</v>
       </c>
       <c r="B172" s="1">
-        <f>[1]Energisa!AB173</f>
+        <f>[1]Energisa!AB172</f>
         <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
-        <f>[1]Energisa!AA174</f>
+        <f>[1]Energisa!AA173</f>
         <v>0</v>
       </c>
       <c r="B173" s="1">
-        <f>[1]Energisa!AB174</f>
+        <f>[1]Energisa!AB173</f>
         <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
-        <f>[1]Energisa!AA175</f>
+        <f>[1]Energisa!AA174</f>
         <v>0</v>
       </c>
       <c r="B174" s="1">
-        <f>[1]Energisa!AB175</f>
+        <f>[1]Energisa!AB174</f>
         <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
-        <f>[1]Energisa!AA176</f>
+        <f>[1]Energisa!AA175</f>
         <v>0</v>
       </c>
       <c r="B175" s="1">
-        <f>[1]Energisa!AB176</f>
+        <f>[1]Energisa!AB175</f>
         <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
-        <f>[1]Energisa!AA177</f>
+        <f>[1]Energisa!AA176</f>
         <v>0</v>
       </c>
       <c r="B176" s="1">
-        <f>[1]Energisa!AB177</f>
+        <f>[1]Energisa!AB176</f>
         <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
-        <f>[1]Energisa!AA178</f>
+        <f>[1]Energisa!AA177</f>
         <v>0</v>
       </c>
       <c r="B177" s="1">
-        <f>[1]Energisa!AB178</f>
+        <f>[1]Energisa!AB177</f>
         <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
-        <f>[1]Energisa!AA179</f>
+        <f>[1]Energisa!AA178</f>
         <v>0</v>
       </c>
       <c r="B178" s="1">
-        <f>[1]Energisa!AB179</f>
+        <f>[1]Energisa!AB178</f>
         <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
-        <f>[1]Energisa!AA180</f>
+        <f>[1]Energisa!AA179</f>
         <v>0</v>
       </c>
       <c r="B179" s="1">
-        <f>[1]Energisa!AB180</f>
+        <f>[1]Energisa!AB179</f>
         <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
-        <f>[1]Energisa!AA190</f>
+        <f>[1]Energisa!AA180</f>
         <v>0</v>
       </c>
       <c r="B180" s="1">
-        <f>[1]Energisa!AB190</f>
+        <f>[1]Energisa!AB180</f>
         <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
-        <f>[1]Energisa!AA191</f>
+        <f>[1]Energisa!AA181</f>
         <v>0</v>
       </c>
       <c r="B181" s="1">
-        <f>[1]Energisa!AB191</f>
+        <f>[1]Energisa!AB181</f>
         <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
-        <f>[1]Energisa!AA192</f>
+        <f>[1]Energisa!AA182</f>
         <v>0</v>
       </c>
       <c r="B182" s="1">
-        <f>[1]Energisa!AB192</f>
+        <f>[1]Energisa!AB182</f>
         <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
-        <f>[1]Energisa!AA193</f>
+        <f>[1]Energisa!AA183</f>
         <v>0</v>
       </c>
       <c r="B183" s="1">
-        <f>[1]Energisa!AB193</f>
+        <f>[1]Energisa!AB183</f>
         <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
-        <f>[1]Energisa!AA194</f>
+        <f>[1]Energisa!AA184</f>
         <v>0</v>
       </c>
       <c r="B184" s="1">
-        <f>[1]Energisa!AB194</f>
+        <f>[1]Energisa!AB184</f>
         <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
-        <f>[1]Energisa!AA195</f>
+        <f>[1]Energisa!AA185</f>
         <v>0</v>
       </c>
       <c r="B185" s="1">
-        <f>[1]Energisa!AB195</f>
+        <f>[1]Energisa!AB185</f>
         <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
-        <f>[1]Energisa!AA196</f>
+        <f>[1]Energisa!AA186</f>
         <v>0</v>
       </c>
       <c r="B186" s="1">
-        <f>[1]Energisa!AB196</f>
+        <f>[1]Energisa!AB186</f>
         <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
-        <f>[1]Energisa!AA197</f>
+        <f>[1]Energisa!AA187</f>
         <v>0</v>
       </c>
       <c r="B187" s="1">
-        <f>[1]Energisa!AB197</f>
+        <f>[1]Energisa!AB187</f>
         <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
-        <f>[1]Energisa!AA198</f>
+        <f>[1]Energisa!AA188</f>
         <v>0</v>
       </c>
       <c r="B188" s="1">
-        <f>[1]Energisa!AB198</f>
+        <f>[1]Energisa!AB188</f>
         <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
-        <f>[1]Energisa!AA199</f>
+        <f>[1]Energisa!AA189</f>
         <v>0</v>
       </c>
       <c r="B189" s="1">
-        <f>[1]Energisa!AB199</f>
+        <f>[1]Energisa!AB189</f>
         <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
-        <f>[1]Energisa!AA200</f>
+        <f>[1]Energisa!AA190</f>
         <v>0</v>
       </c>
       <c r="B190" s="1">
-        <f>[1]Energisa!AB200</f>
+        <f>[1]Energisa!AB190</f>
         <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
-        <f>[1]Energisa!AA201</f>
+        <f>[1]Energisa!AA191</f>
         <v>0</v>
       </c>
       <c r="B191" s="1">
-        <f>[1]Energisa!AB201</f>
+        <f>[1]Energisa!AB191</f>
         <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
-        <f>[1]Energisa!AA202</f>
+        <f>[1]Energisa!AA192</f>
         <v>0</v>
       </c>
       <c r="B192" s="1">
-        <f>[1]Energisa!AB202</f>
+        <f>[1]Energisa!AB192</f>
         <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
-        <f>[1]Energisa!AA203</f>
+        <f>[1]Energisa!AA193</f>
         <v>0</v>
       </c>
       <c r="B193" s="1">
-        <f>[1]Energisa!AB203</f>
+        <f>[1]Energisa!AB193</f>
         <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
-        <f>[1]Energisa!AA204</f>
+        <f>[1]Energisa!AA194</f>
         <v>0</v>
       </c>
       <c r="B194" s="1">
-        <f>[1]Energisa!AB204</f>
+        <f>[1]Energisa!AB194</f>
         <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
-        <f>[1]Energisa!AA205</f>
+        <f>[1]Energisa!AA195</f>
         <v>0</v>
       </c>
       <c r="B195" s="1">
-        <f>[1]Energisa!AB205</f>
+        <f>[1]Energisa!AB195</f>
         <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
-        <f>[1]Energisa!AA206</f>
+        <f>[1]Energisa!AA196</f>
         <v>0</v>
       </c>
       <c r="B196" s="1">
-        <f>[1]Energisa!AB206</f>
+        <f>[1]Energisa!AB196</f>
         <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
-        <f>[1]Energisa!AA207</f>
+        <f>[1]Energisa!AA197</f>
         <v>0</v>
       </c>
       <c r="B197" s="1">
-        <f>[1]Energisa!AB207</f>
+        <f>[1]Energisa!AB197</f>
         <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
-        <f>[1]Energisa!AA208</f>
+        <f>[1]Energisa!AA198</f>
         <v>0</v>
       </c>
       <c r="B198" s="1">
-        <f>[1]Energisa!AB208</f>
+        <f>[1]Energisa!AB198</f>
         <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
-        <f>[1]Energisa!AA209</f>
+        <f>[1]Energisa!AA199</f>
         <v>0</v>
       </c>
       <c r="B199" s="1">
-        <f>[1]Energisa!AB209</f>
+        <f>[1]Energisa!AB199</f>
         <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
-        <f>[1]Energisa!AA210</f>
+        <f>[1]Energisa!AA200</f>
         <v>0</v>
       </c>
       <c r="B200" s="1">
-        <f>[1]Energisa!AB210</f>
+        <f>[1]Energisa!AB200</f>
         <v>0</v>
       </c>
     </row>
@@ -6962,11 +6981,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8DEFE0C-57A1-4ABD-AD8F-ED9C554DA9ED}">
+  <dimension ref="I11:I13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="11" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="13"/>
+    </row>
+    <row r="12" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="14">
+        <f ca="1">[1]Sheet1!$I$13</f>
+        <v>44880.944575000001</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I13" t="str">
+        <f>[1]Sheet1!$I$14</f>
+        <v>g</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F802F52-3902-4197-B89B-B2194CEC26D3}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6986,11 +7035,11 @@
       <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
@@ -7003,14 +7052,14 @@
         <v>6</v>
       </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="11" t="str">
+      <c r="D2" s="11" t="e">
         <f>VLOOKUP("Data de Emissao",'Dados Energisa'!A3:B200,2,0)</f>
-        <v>03/10/2022</v>
+        <v>#N/A</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="str">
         <f>IF(NOT(OR(ISERROR(D2),ISBLANK(D2))),"Sem erros","Data de emissão com erro")</f>
-        <v>Sem erros</v>
+        <v>Data de emissão com erro</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -7020,18 +7069,18 @@
       <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="11" t="str">
+      <c r="C3" s="11" t="e">
         <f>VLOOKUP("Leitura Anterior",'Dados Energisa'!A:B,2,0)</f>
-        <v>31/08/2022</v>
-      </c>
-      <c r="D3" s="11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D3" s="11" t="e">
         <f>VLOOKUP("Data de Emissao",'Dados Energisa'!A4:B201,2,0)</f>
-        <v>03/10/2022</v>
+        <v>#N/A</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="str">
         <f>IF(ISERROR(DATEDIF(C3,D3,"d")), "Data de emissão do mês anterior maior do que data de emissão atual", "Sem erros")</f>
-        <v>Sem erros</v>
+        <v>Data de emissão do mês anterior maior do que data de emissão atual</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -7042,14 +7091,14 @@
         <v>7</v>
       </c>
       <c r="C4" s="11"/>
-      <c r="D4" s="11" t="str">
+      <c r="D4" s="11" t="e">
         <f>VLOOKUP("Leitura Atual",'Dados Energisa'!A:B,2,0)</f>
-        <v>30/09/2022</v>
+        <v>#N/A</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="11" t="str">
         <f>IF(NOT(OR(ISERROR(D4),ISBLANK(D4))),"Sem erros","Data de emissão com erro")</f>
-        <v>Sem erros</v>
+        <v>Data de emissão com erro</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -7059,21 +7108,21 @@
       <c r="B5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="11" t="e">
         <f>VLOOKUP("Leitura Anterior",'Dados Energisa'!A:B,2,0)</f>
-        <v>31/08/2022</v>
-      </c>
-      <c r="D5" s="11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="D5" s="11" t="e">
         <f>VLOOKUP("Data de Emissao",'Dados Energisa'!A4:B201,2,0)</f>
-        <v>03/10/2022</v>
-      </c>
-      <c r="E5" s="11" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="E5" s="11" t="e">
         <f>VLOOKUP("Proxima Leitura",'Dados Energisa'!A:B,2,0)</f>
-        <v>31/10/2022</v>
-      </c>
-      <c r="F5" s="11" t="str">
-        <f>IF(OR(DATEDIF(C5,D5,"m")=0,DATEDIF(D5,E5,"m")=0),"Mais de uma fatura em um mesmo mês","Sem erros")</f>
-        <v>Mais de uma fatura em um mesmo mês</v>
+        <v>#N/A</v>
+      </c>
+      <c r="F5" s="11" t="e">
+        <f>IF(OR(MONTH(C5)=MONTH(D5),MONTH(D5)=MONTH(E5)),"Mais de uma fatura em um mesmo mês","Sem erros")</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -7084,14 +7133,14 @@
         <v>8</v>
       </c>
       <c r="C6" s="11"/>
-      <c r="D6" s="11" t="str">
+      <c r="D6" s="11" t="e">
         <f>VLOOKUP("Mes de Referencia",'Dados Energisa'!A:B,2,0)</f>
-        <v>Setembro/2022</v>
+        <v>#N/A</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="11" t="str">
         <f>IF(OR(ISERROR(DAY(D6)),ISERROR(MONTH(D6)),ISERROR(YEAR(D6))),"Mês e/ou ano de referência com erros ou em formato inválido","Sem erros")</f>
-        <v>Sem erros</v>
+        <v>Mês e/ou ano de referência com erros ou em formato inválido</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -7102,14 +7151,14 @@
         <v>9</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="11" t="str">
+      <c r="D7" s="11" t="e">
         <f>VLOOKUP("Vencimento",'Dados Energisa'!A:B,2,0)</f>
-        <v>14/10/2022</v>
+        <v>#N/A</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11" t="str">
         <f>IF(OR(ISERROR(DAY(D7)),ISERROR(MONTH(D7)),ISERROR(YEAR(D7))),"Data de vencimento com erros ou em formato inválido","Sem erros")</f>
-        <v>Sem erros</v>
+        <v>Data de vencimento com erros ou em formato inválido</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -7119,15 +7168,15 @@
       <c r="B8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="11" t="e">
         <f>VLOOKUP("Leitura Anterior",'Dados Energisa'!A:B,2,0)</f>
-        <v>31/08/2022</v>
+        <v>#N/A</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
       <c r="F8" s="11" t="str">
         <f>IF(OR(ISERROR(MONTH(C8)),ISERROR(YEAR(C8))),"Data da leitura anterior com erro ou em formato inválido","Sem erros")</f>
-        <v>Sem erros</v>
+        <v>Data da leitura anterior com erro ou em formato inválido</v>
       </c>
     </row>
   </sheetData>
@@ -7135,7 +7184,6 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>